--- a/DateBase/orders/Nhat 48_2025-12-2.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-2.xlsx
@@ -615,6 +615,9 @@
       <c r="C21" t="str">
         <v>622_多丁时尚太子_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -676,7 +679,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0208105105101010101010101010101515100</v>
+        <v>0208105105101010101010101010101515105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-2.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -619,9 +619,91 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22" xml:space="preserve">
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>771_美洲茶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -679,7 +761,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0208105105101010101010101010101515105</v>
+        <v>0208105105101010101010101010101515105101510512225660</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-2.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-2.xlsx
@@ -700,6 +700,9 @@
       <c r="C31" t="str">
         <v>586_洋牡丹白_undefined_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -761,7 +764,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0208105105101010101010101010101515105101510512225660</v>
+        <v>0208105105101010101010101010101515105101510512225665</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-2.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -704,9 +704,175 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>1</v>
+      </c>
+      <c r="C33" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>759_芍药红富士_Kansas_undefined_10stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2</v>
+      </c>
+      <c r="C37" t="str">
+        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>759_芍药红富士_Kansas_undefined_10stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>3</v>
+      </c>
+      <c r="C43" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>279_完美甜蜜_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>227_多头卡布奇诺_Cappuccino spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -764,7 +930,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0208105105101010101010101010101515105101510512225665</v>
+        <v>0208105105101010101010101010101515105101510512225665515154511711512.5357.51381010150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-2.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-2.xlsx
@@ -869,6 +869,9 @@
       <c r="C51" t="str">
         <v>479_绿灵草_lepidium_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -930,7 +933,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0208105105101010101010101010101515105101510512225665515154511711512.5357.51381010150</v>
+        <v>0208105105101010101010101010101515105101510512225665515154511711512.5357.51381010153</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-2.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-2.xlsx
@@ -870,7 +870,7 @@
         <v>479_绿灵草_lepidium_undefined_1bunch</v>
       </c>
       <c r="F51" t="str">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -933,7 +933,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0208105105101010101010101010101515105101510512225665515154511711512.5357.51381010153</v>
+        <v>0208105105101010101010101010101515105101510512225665515154511711512.5357.513810101530</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-2.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -873,9 +873,255 @@
         <v>30</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>4</v>
+      </c>
+      <c r="C52" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>75_爱心_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>5</v>
+      </c>
+      <c r="C56" t="str">
+        <v>682_锦鲤粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>680_锦鲤黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>681_锦鲤橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>840_洋牡丹塞纳河_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>840_洋牡丹塞纳河_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F61" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>656_大丽花 梅根_undefined_undefined_5stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="C64" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>6</v>
+      </c>
+      <c r="C65" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>771_美洲茶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="C67" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>7</v>
+      </c>
+      <c r="C69" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>823_剑兰阿贾克斯_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>824_剑兰阿蒂娜_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F71" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>100_绣球白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F72" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F73" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>601_康乃馨大红_red_undefined_20stems</v>
+      </c>
+      <c r="F74" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>607_康乃馨芙蓉_light orange_undefined_20stems</v>
+      </c>
+      <c r="F75" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>610_康乃馨黄_yellow_undefined_20stems</v>
+      </c>
+      <c r="F76" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F77" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>605_康乃馨流光粉_light pink_undefined_20stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>789_迷你菊浅粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L80"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -933,7 +1179,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0208105105101010101010101010101515105101510512225665515154511711512.5357.513810101530</v>
+        <v>0208105105101010101010101010101515105101510512225665515154511711512.5357.5138101015301010151010556551101020102061555201515101015101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-2.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-2.xlsx
@@ -1181,6 +1181,9 @@
       <c r="G2" t="str">
         <v>0208105105101010101010101010101515105101510512225665515154511711512.5357.5138101015301010151010556551101020102061555201515101015101010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
